--- a/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3186426-F174-40A1-9EC1-D0719128C0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25CC91A-3C64-4D81-AA4F-63A49BEEF58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3D66228-2D8B-4901-A736-865C32AFEEC7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D576882-3C92-47D3-8A25-01E0EB832A77}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="257">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>42,5%</t>
+    <t>42,96%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,5%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -172,19 +172,19 @@
     <t>82,21%</t>
   </si>
   <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>21,02%</t>
@@ -196,19 +196,19 @@
     <t>17,79%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -232,13 +232,13 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>79,97%</t>
+    <t>78,99%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>86,27%</t>
+    <t>87,85%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -247,13 +247,13 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>13,73%</t>
+    <t>12,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -262,7 +262,7 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>74,65%</t>
+    <t>75,21%</t>
   </si>
   <si>
     <t>94,22%</t>
@@ -274,13 +274,13 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>83,76%</t>
+    <t>83,2%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>25,35%</t>
+    <t>24,79%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -292,22 +292,22 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>16,24%</t>
+    <t>16,8%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
+    <t>89,79%</t>
   </si>
   <si>
     <t>98,34%</t>
@@ -316,19 +316,19 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>4,75%</t>
@@ -337,16 +337,16 @@
     <t>1,66%</t>
   </si>
   <si>
-    <t>9,84%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -361,43 +361,43 @@
     <t>88,77%</t>
   </si>
   <si>
-    <t>62,78%</t>
+    <t>62,61%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>82,61%</t>
+    <t>85,79%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>37,22%</t>
+    <t>37,39%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>17,39%</t>
+    <t>14,21%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -421,55 +421,55 @@
     <t>76,39%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>88,14%</t>
+    <t>84,72%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>15,28%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>69,65%</t>
+    <t>75,28%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -478,13 +478,13 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>82,63%</t>
+    <t>83,69%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>30,35%</t>
+    <t>24,72%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -493,7 +493,7 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>17,37%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -505,7 +505,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>79,01%</t>
+    <t>83,37%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -514,13 +514,13 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>91,85%</t>
+    <t>90,27%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>20,99%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -529,7 +529,7 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>8,15%</t>
+    <t>9,73%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -553,256 +553,262 @@
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>14,36%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>53,31%</t>
+    <t>61,25%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>81,41%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>46,69%</t>
+    <t>38,75%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>18,59%</t>
+    <t>19,49%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>1,83%</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D6FA2-0E52-4306-85AD-08D20C9C376C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C692D1-02EB-4CF1-94D8-0C82FDC0EDAC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2745,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493FFCD7-7AE4-42AB-9516-3ACB89241251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2DDF39-42FC-43B6-924D-B53744BD19EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4097,7 +4103,7 @@
         <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>171</v>
@@ -4106,13 +4112,13 @@
         <v>187136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>284</v>
@@ -4121,13 +4127,13 @@
         <v>316174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4148,13 @@
         <v>11226</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4157,13 +4163,13 @@
         <v>2959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4172,13 +4178,13 @@
         <v>14185</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC643A0-441B-41C6-BD2A-1B7B4AACB707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6649CE9-3026-4F1B-A44D-2304BAC00D17}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4397,10 +4403,10 @@
         <v>20774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4412,10 +4418,10 @@
         <v>29384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4448,13 +4454,13 @@
         <v>1858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4463,13 +4469,13 @@
         <v>1858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,7 +4561,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4609,7 +4615,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4695,7 +4701,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4710,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4725,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4749,7 +4755,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4764,7 +4770,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4779,7 +4785,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,10 +4853,10 @@
         <v>15084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4862,10 +4868,10 @@
         <v>27686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4877,10 +4883,10 @@
         <v>42770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4898,13 +4904,13 @@
         <v>1655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4913,13 +4919,13 @@
         <v>924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4928,13 +4934,13 @@
         <v>2579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,7 +5008,7 @@
         <v>2086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>20</v>
@@ -5032,10 +5038,10 @@
         <v>9184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5053,7 +5059,7 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
@@ -5083,13 +5089,13 @@
         <v>947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5166,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5175,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5214,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5229,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5312,10 +5318,10 @@
         <v>23316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5327,10 +5333,10 @@
         <v>30492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5342,10 +5348,10 @@
         <v>53809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5363,13 +5369,13 @@
         <v>1166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5378,13 +5384,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5393,13 +5399,13 @@
         <v>2359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,10 +5473,10 @@
         <v>18647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5497,10 +5503,10 @@
         <v>46074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5518,13 +5524,13 @@
         <v>1851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5548,13 +5554,13 @@
         <v>1851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5628,13 @@
         <v>92292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -5637,13 +5643,13 @@
         <v>134981</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -5652,13 +5658,13 @@
         <v>227273</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5679,13 @@
         <v>5618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5688,13 +5694,13 @@
         <v>3976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5703,13 +5709,13 @@
         <v>9594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25CC91A-3C64-4D81-AA4F-63A49BEEF58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EC8265-0228-4E43-9517-6D2C3C992E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D576882-3C92-47D3-8A25-01E0EB832A77}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{031D523A-2CE5-4747-839D-24927DE58071}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>42,96%</t>
+    <t>44,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>71,48%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>57,04%</t>
+    <t>55,79%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>28,52%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -166,22 +166,22 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>31,05%</t>
+    <t>30,78%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>60,87%</t>
+    <t>56,58%</t>
   </si>
   <si>
     <t>95,77%</t>
@@ -190,16 +190,16 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>69,22%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>18,82%</t>
@@ -208,7 +208,7 @@
     <t>4,23%</t>
   </si>
   <si>
-    <t>39,13%</t>
+    <t>43,42%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -232,244 +232,244 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>78,99%</t>
+    <t>80,73%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>75,28%</t>
+    <t>69,08%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -478,13 +478,13 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>83,69%</t>
+    <t>83,73%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>24,72%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -493,7 +493,7 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -505,7 +505,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>83,37%</t>
+    <t>80,99%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -514,13 +514,13 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>90,27%</t>
+    <t>93,0%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>16,63%</t>
+    <t>19,01%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -529,7 +529,7 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>9,73%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -553,16 +553,16 @@
     <t>92,0%</t>
   </si>
   <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,75%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -571,19 +571,19 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -592,43 +592,43 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2015 (Tasa respuesta: 3,23%)</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>72,55%</t>
+    <t>72,97%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>27,45%</t>
+    <t>27,03%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -649,40 +649,34 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>62,6%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>83,52%</t>
+    <t>82,12%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>16,48%</t>
+    <t>17,88%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>18,58%</t>
+    <t>18,08%</t>
   </si>
   <si>
     <t>68,78%</t>
@@ -691,7 +685,7 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>61,33%</t>
+    <t>61,16%</t>
   </si>
   <si>
     <t>31,22%</t>
@@ -700,115 +694,121 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>38,67%</t>
+    <t>38,84%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>74,34%</t>
+    <t>77,55%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>81,12%</t>
+    <t>83,48%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>85,64%</t>
+    <t>85,18%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>25,66%</t>
+    <t>22,45%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>16,52%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>14,36%</t>
+    <t>14,82%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>61,25%</t>
+    <t>65,3%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>80,51%</t>
+    <t>83,36%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>38,75%</t>
+    <t>34,7%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>19,49%</t>
+    <t>16,64%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>98,17%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C692D1-02EB-4CF1-94D8-0C82FDC0EDAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A65B4D-CF53-4981-90F9-A0E19C11A7EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,7 +2751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2DDF39-42FC-43B6-924D-B53744BD19EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010B291-7A7F-4852-906C-0ACFC836BD13}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4264,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6649CE9-3026-4F1B-A44D-2304BAC00D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D838A204-5758-42CF-81EA-6787049CFF06}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,10 +4853,10 @@
         <v>15084</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4868,10 +4868,10 @@
         <v>27686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4883,10 +4883,10 @@
         <v>42770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4904,13 +4904,13 @@
         <v>1655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4919,13 +4919,13 @@
         <v>924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4934,13 +4934,13 @@
         <v>2579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>2086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>20</v>
@@ -5038,10 +5038,10 @@
         <v>9184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5059,7 +5059,7 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
@@ -5089,13 +5089,13 @@
         <v>947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,10 +5318,10 @@
         <v>23316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5333,10 +5333,10 @@
         <v>30492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5348,10 +5348,10 @@
         <v>53809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5369,13 +5369,13 @@
         <v>1166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5384,13 +5384,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5399,13 +5399,13 @@
         <v>2359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +5473,10 @@
         <v>18647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5503,10 +5503,10 @@
         <v>46074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5524,13 +5524,13 @@
         <v>1851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5554,13 +5554,13 @@
         <v>1851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5628,13 @@
         <v>92292</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -5643,13 +5643,13 @@
         <v>134981</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -5658,13 +5658,13 @@
         <v>227273</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5679,13 @@
         <v>5618</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5694,13 +5694,13 @@
         <v>3976</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5709,13 +5709,13 @@
         <v>9594</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EC8265-0228-4E43-9517-6D2C3C992E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C5D67A-F137-47FD-8E6D-2BB80A0F8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{031D523A-2CE5-4747-839D-24927DE58071}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB3ACBBD-79BD-464A-AD13-4D788E48CEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="255">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>44,21%</t>
+    <t>42,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>73,12%</t>
+    <t>72,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,79%</t>
+    <t>57,5%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>26,88%</t>
+    <t>27,41%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -166,49 +166,49 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>30,78%</t>
+    <t>31,05%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>69,22%</t>
+    <t>68,95%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -232,13 +232,13 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>80,73%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>86,98%</t>
+    <t>86,27%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -247,13 +247,13 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>19,27%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>13,73%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -262,142 +262,142 @@
     <t>95,01%</t>
   </si>
   <si>
-    <t>74,91%</t>
+    <t>74,65%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>73,69%</t>
+    <t>69,91%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>83,14%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>25,09%</t>
+    <t>25,35%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>26,31%</t>
+    <t>30,09%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>16,86%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,25%</t>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>19,95%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -421,262 +421,262 @@
     <t>76,39%</t>
   </si>
   <si>
-    <t>53,55%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2016 (Tasa respuesta: 3,23%)</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>43,32%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>17,88%</t>
+    <t>16,98%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>18,08%</t>
+    <t>20,02%</t>
   </si>
   <si>
     <t>68,78%</t>
@@ -685,7 +685,7 @@
     <t>90,66%</t>
   </si>
   <si>
-    <t>61,16%</t>
+    <t>61,15%</t>
   </si>
   <si>
     <t>31,22%</t>
@@ -694,121 +694,115 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>38,84%</t>
+    <t>38,85%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>77,55%</t>
+    <t>76,16%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>65,3%</t>
+    <t>53,31%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>83,36%</t>
+    <t>81,41%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>34,7%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>16,64%</t>
+    <t>18,59%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A65B4D-CF53-4981-90F9-A0E19C11A7EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B34FAB-2952-46F1-8E30-EFF0327B82B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010B291-7A7F-4852-906C-0ACFC836BD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48723785-3211-4CA3-91AC-0AB983E9BA90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4103,7 +4097,7 @@
         <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="H28" s="7">
         <v>171</v>
@@ -4112,13 +4106,13 @@
         <v>187136</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>284</v>
@@ -4127,13 +4121,13 @@
         <v>316174</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4142,13 @@
         <v>11226</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4163,13 +4157,13 @@
         <v>2959</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4178,13 +4172,13 @@
         <v>14185</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D838A204-5758-42CF-81EA-6787049CFF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61682D4-5207-46D1-A028-55B2CBAAE804}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4281,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4403,10 +4397,10 @@
         <v>20774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4418,10 +4412,10 @@
         <v>29384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4454,13 +4448,13 @@
         <v>1858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4469,13 +4463,13 @@
         <v>1858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4615,7 +4609,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4701,7 +4695,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4716,7 +4710,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4731,7 +4725,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4755,7 +4749,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4770,7 +4764,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4785,7 +4779,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,10 +4847,10 @@
         <v>15084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4868,10 +4862,10 @@
         <v>27686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4883,10 +4877,10 @@
         <v>42770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4904,7 +4898,7 @@
         <v>1655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
@@ -5166,7 +5160,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5181,7 +5175,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5220,7 +5214,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5235,7 +5229,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5348,10 +5342,10 @@
         <v>53809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5369,13 +5363,13 @@
         <v>1166</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5384,13 +5378,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5399,13 +5393,13 @@
         <v>2359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +5467,10 @@
         <v>18647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5503,10 +5497,10 @@
         <v>46074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5524,13 +5518,13 @@
         <v>1851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5554,13 +5548,13 @@
         <v>1851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5622,13 @@
         <v>92292</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -5643,13 +5637,13 @@
         <v>134981</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -5658,13 +5652,13 @@
         <v>227273</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5673,13 @@
         <v>5618</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5694,13 +5688,13 @@
         <v>3976</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5709,13 +5703,13 @@
         <v>9594</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C5D67A-F137-47FD-8E6D-2BB80A0F8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFF4F338-FBAE-471E-84CF-87E1DEFBCDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB3ACBBD-79BD-464A-AD13-4D788E48CEB4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A124A85-9BC9-4140-823F-5CA1B510E0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="258">
   <si>
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2007 (Tasa respuesta: 3,13%)</t>
   </si>
@@ -355,7 +355,46 @@
     <t>Porcentaje de medicinas para alteraciones digestivas recetados en 2012 (Tasa respuesta: 4,56%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
   </si>
   <si>
     <t>88,77%</t>
@@ -418,52 +457,28 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>93,93%</t>
@@ -532,16 +547,10 @@
     <t>8,15%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
     <t>93,64%</t>
   </si>
   <si>
     <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -1214,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B34FAB-2952-46F1-8E30-EFF0327B82B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D56710B-D04D-4E36-8988-BB5A66028E56}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2745,7 +2754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48723785-3211-4CA3-91AC-0AB983E9BA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3DC103-9579-48EC-AD7B-E1BA625CF210}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2863,43 +2872,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12030</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18458</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30488</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,43 +2923,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6295</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6295</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,43 +2974,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18325</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18458</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N6" s="7">
+        <v>36783</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,10 +3033,10 @@
         <v>23562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3021,10 +3048,10 @@
         <v>30518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3036,13 +3063,13 @@
         <v>54080</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3084,13 @@
         <v>2979</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3072,13 +3099,13 @@
         <v>1078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3087,13 +3114,13 @@
         <v>4057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -3179,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -3194,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3218,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3233,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3248,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,49 +3337,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>20370</v>
+        <v>8340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>47338</v>
+        <v>28880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>67708</v>
+        <v>37220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,19 +3388,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>6295</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3382,28 +3409,28 @@
         <v>1881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>8176</v>
+        <v>1881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3439,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>26665</v>
+        <v>8340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3427,10 +3454,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I15" s="7">
-        <v>49219</v>
+        <v>30761</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3442,10 +3469,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N15" s="7">
-        <v>75884</v>
+        <v>39101</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3471,10 +3498,10 @@
         <v>15974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3489,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3501,10 +3528,10 @@
         <v>31421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3522,13 +3549,13 @@
         <v>1032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3543,7 +3570,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3552,13 +3579,13 @@
         <v>1032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,7 +3656,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -3659,7 +3686,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3683,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3713,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,10 +3808,10 @@
         <v>22473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3799,7 +3826,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3811,10 +3838,10 @@
         <v>58786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3832,13 +3859,13 @@
         <v>921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3853,7 +3880,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3862,13 +3889,13 @@
         <v>921</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3966,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3954,7 +3981,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -3969,7 +3996,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -3993,7 +4020,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4008,7 +4035,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4023,7 +4050,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4118,13 @@
         <v>129037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>171</v>
@@ -4106,13 +4133,13 @@
         <v>187136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>284</v>
@@ -4121,13 +4148,13 @@
         <v>316174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4169,13 @@
         <v>11226</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -4157,13 +4184,13 @@
         <v>2959</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4172,13 +4199,13 @@
         <v>14185</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61682D4-5207-46D1-A028-55B2CBAAE804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051EAF77-5E57-466A-B725-52BD661533A6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4275,7 +4302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4385,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4397,10 +4424,10 @@
         <v>20774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4412,10 +4439,10 @@
         <v>29384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4439,7 +4466,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4448,13 +4475,13 @@
         <v>1858</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4463,13 +4490,13 @@
         <v>1858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -4609,7 +4636,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4695,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4710,7 +4737,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4725,7 +4752,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4749,7 +4776,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4764,7 +4791,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4779,7 +4806,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,10 +4874,10 @@
         <v>15084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4862,10 +4889,10 @@
         <v>27686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4877,10 +4904,10 @@
         <v>42770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4898,13 +4925,13 @@
         <v>1655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4913,13 +4940,13 @@
         <v>924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4928,13 +4955,13 @@
         <v>2579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,7 +5029,7 @@
         <v>2086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>20</v>
@@ -5032,10 +5059,10 @@
         <v>9184</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5053,7 +5080,7 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
@@ -5083,13 +5110,13 @@
         <v>947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5187,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5175,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5190,7 +5217,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -5214,7 +5241,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5229,7 +5256,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5244,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,10 +5339,10 @@
         <v>23316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5327,10 +5354,10 @@
         <v>30492</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5342,10 +5369,10 @@
         <v>53809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5363,13 +5390,13 @@
         <v>1166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5378,13 +5405,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5393,13 +5420,13 @@
         <v>2359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,10 +5494,10 @@
         <v>18647</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5485,7 +5512,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5497,10 +5524,10 @@
         <v>46074</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5518,13 +5545,13 @@
         <v>1851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5539,7 +5566,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5548,13 +5575,13 @@
         <v>1851</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5649,13 @@
         <v>92292</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -5637,13 +5664,13 @@
         <v>134981</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>204</v>
@@ -5652,13 +5679,13 @@
         <v>227273</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5700,13 @@
         <v>5618</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -5688,13 +5715,13 @@
         <v>3976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5703,13 +5730,13 @@
         <v>9594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
